--- a/Stocks/WHIRLPOOL.xlsx
+++ b/Stocks/WHIRLPOOL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1220.7333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1162.2858810480921</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1147.9093716255363</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>50.952360277897654</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>5.4000000000000909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>12.549999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.43027888446216023</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1154.2731451986294</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>3.359921640952507</v>
       </c>
       <c r="Y67">
         <v>2.314009607916748</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1160.05</v>
+      </c>
+      <c r="D83">
+        <v>1204.05</v>
+      </c>
+      <c r="E83">
+        <v>1160.05</v>
+      </c>
+      <c r="F83">
+        <v>1190.3499999999999</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1184.8166666666666</v>
+      </c>
+      <c r="H83">
+        <v>1180.1902651857663</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1193.3333589875285</v>
+      </c>
+      <c r="K83">
+        <v>1159.7930833624148</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>64.663263783187816</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>30.299999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.6886363636363626</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1175.0436169844884</v>
+      </c>
+      <c r="W83">
+        <v>1168.5031204565851</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>6.5404965279033149</v>
+      </c>
+      <c r="Y83">
+        <v>5.5213185674546992</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1191.05</v>
+      </c>
+      <c r="D84">
+        <v>1191.05</v>
+      </c>
+      <c r="E84">
+        <v>1161</v>
+      </c>
+      <c r="F84">
+        <v>1174.8</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1175.6166666666668</v>
+      </c>
+      <c r="H84">
+        <v>1177.9034659262165</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1192.8259458791888</v>
+      </c>
+      <c r="K84">
+        <v>1160.061287059656</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>48.281847263981369</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.049999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.45923460898502416</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1175.0061374484133</v>
+      </c>
+      <c r="W84">
+        <v>1168.9695559783195</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>6.036581470093779</v>
+      </c>
+      <c r="Y84">
+        <v>5.6243711479825151</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1176.7</v>
+      </c>
+      <c r="D85">
+        <v>1190</v>
+      </c>
+      <c r="E85">
+        <v>1164.2</v>
+      </c>
+      <c r="F85">
+        <v>1175</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1176.3999999999999</v>
+      </c>
+      <c r="H85">
+        <v>1177.1517329631083</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1192.1979579060358</v>
+      </c>
+      <c r="K85">
+        <v>1160.9810010463991</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>48.491635536633844</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.799999999999955</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>25.799999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.41860465116278966</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1175.0051932255803</v>
+      </c>
+      <c r="W85">
+        <v>1169.416255535481</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>5.5889376900993284</v>
+      </c>
+      <c r="Y85">
+        <v>5.6172844564058781</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1181.1500000000001</v>
+      </c>
+      <c r="D86">
+        <v>1202.9000000000001</v>
+      </c>
+      <c r="E86">
+        <v>1170</v>
+      </c>
+      <c r="F86">
+        <v>1174.0999999999999</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1182.3333333333333</v>
+      </c>
+      <c r="H86">
+        <v>1179.7425331482209</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1194.5761894824723</v>
+      </c>
+      <c r="K86">
+        <v>1162.9852230360882</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>47.409878882522754</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.0999999999999091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>32.900000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.12462006079027045</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1174.8659327293371</v>
+      </c>
+      <c r="W86">
+        <v>1169.7631995698898</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>5.1027331594473253</v>
+      </c>
+      <c r="Y86">
+        <v>5.5143741970141678</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1175</v>
+      </c>
+      <c r="D87">
+        <v>1193.05</v>
+      </c>
+      <c r="E87">
+        <v>1173.5</v>
+      </c>
+      <c r="F87">
+        <v>1185</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1183.8500000000001</v>
+      </c>
+      <c r="H87">
+        <v>1181.7962665741106</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1194.237036264145</v>
+      </c>
+      <c r="K87">
+        <v>1165.3218401391798</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>60.686748929742407</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>19.549999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.58823529411764841</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1176.4250200017468</v>
+      </c>
+      <c r="W87">
+        <v>1170.8918514536017</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>5.5331685481451132</v>
+      </c>
+      <c r="Y87">
+        <v>5.518133067240357</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1208</v>
+      </c>
+      <c r="D88">
+        <v>1208</v>
+      </c>
+      <c r="E88">
+        <v>1172</v>
+      </c>
+      <c r="F88">
+        <v>1175.3499999999999</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1185.1166666666666</v>
+      </c>
+      <c r="H88">
+        <v>1183.4564666203887</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1197.2954726498906</v>
+      </c>
+      <c r="K88">
+        <v>1166.8058756638065</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>47.434330564721265</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.3499999999999091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>9.3055555555553032E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1176.2596323091705</v>
+      </c>
+      <c r="W88">
+        <v>1171.2220846792609</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>5.0375476299095681</v>
+      </c>
+      <c r="Y88">
+        <v>5.4220159797741996</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1174.25</v>
+      </c>
+      <c r="D89">
+        <v>1209.3499999999999</v>
+      </c>
+      <c r="E89">
+        <v>1174.25</v>
+      </c>
+      <c r="F89">
+        <v>1198</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1193.8666666666666</v>
+      </c>
+      <c r="H89">
+        <v>1188.6615666435277</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1199.9742565054705</v>
+      </c>
+      <c r="K89">
+        <v>1168.4601255162941</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>67.961363997123115</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>23.75</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>35.099999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.67663817663817838</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1179.6043042616059</v>
+      </c>
+      <c r="W89">
+        <v>1173.2056339622786</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>6.3986702993272502</v>
+      </c>
+      <c r="Y89">
+        <v>5.6173468436848095</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1184.3</v>
+      </c>
+      <c r="D90">
+        <v>1200</v>
+      </c>
+      <c r="E90">
+        <v>1181.25</v>
+      </c>
+      <c r="F90">
+        <v>1190</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1190.4166666666667</v>
+      </c>
+      <c r="H90">
+        <v>1189.5391166550971</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1199.9799772820327</v>
+      </c>
+      <c r="K90">
+        <v>1171.3023198460064</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>57.96736418699787</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>8.75</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>18.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1181.2036420675126</v>
+      </c>
+      <c r="W90">
+        <v>1174.4496610761839</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>6.7539809913287172</v>
+      </c>
+      <c r="Y90">
+        <v>5.8446736732135909</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1194.0999999999999</v>
+      </c>
+      <c r="D91">
+        <v>1214</v>
+      </c>
+      <c r="E91">
+        <v>1172.6500000000001</v>
+      </c>
+      <c r="F91">
+        <v>1200</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1195.55</v>
+      </c>
+      <c r="H91">
+        <v>1192.5445583275487</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1203.0955378860253</v>
+      </c>
+      <c r="K91">
+        <v>1171.6018043246718</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.820792222072726</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>27.349999999999909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>41.349999999999909</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.66142684401450957</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1184.0953894417414</v>
+      </c>
+      <c r="W91">
+        <v>1176.3422787742443</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>7.7531106674971397</v>
+      </c>
+      <c r="Y91">
+        <v>6.2263610720703007</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1206</v>
+      </c>
+      <c r="D92">
+        <v>1234</v>
+      </c>
+      <c r="E92">
+        <v>1183</v>
+      </c>
+      <c r="F92">
+        <v>1225</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1214</v>
+      </c>
+      <c r="H92">
+        <v>1203.2722791637743</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1209.9631961335754</v>
+      </c>
+      <c r="K92">
+        <v>1174.1347366969669</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>78.420565396627083</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>51</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>1190.3884064507042</v>
+      </c>
+      <c r="W92">
+        <v>1179.9465544205966</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>10.441852030107611</v>
+      </c>
+      <c r="Y92">
+        <v>7.0694592636777625</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1225</v>
+      </c>
+      <c r="D93">
+        <v>1235</v>
+      </c>
+      <c r="E93">
+        <v>1199.05</v>
+      </c>
+      <c r="F93">
+        <v>1217.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1217.3333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1210.3028062485537</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1215.5269303261141</v>
+      </c>
+      <c r="K93">
+        <v>1179.6714618754188</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>69.402103226036715</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>18.900000000000091</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>35.950000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.52573018080667777</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1194.6286516121343</v>
+      </c>
+      <c r="W93">
+        <v>1182.7616244635153</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>11.867027148618945</v>
+      </c>
+      <c r="Y93">
+        <v>8.0289728406659986</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1209.75</v>
+      </c>
+      <c r="D94">
+        <v>1236</v>
+      </c>
+      <c r="E94">
+        <v>1205.4000000000001</v>
+      </c>
+      <c r="F94">
+        <v>1215.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1219.1166666666668</v>
+      </c>
+      <c r="H94">
+        <v>1214.7097364576102</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1220.0765013647554</v>
+      </c>
+      <c r="K94">
+        <v>1185.3889147919924</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>66.682742244854168</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>10.549999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>30.599999999999909</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.34477124183006491</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1197.9088590564213</v>
+      </c>
+      <c r="W94">
+        <v>1185.220022651403</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>12.688836405018264</v>
+      </c>
+      <c r="Y94">
+        <v>8.9609455535364511</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1220</v>
+      </c>
+      <c r="D95">
+        <v>1224.9000000000001</v>
+      </c>
+      <c r="E95">
+        <v>1185</v>
+      </c>
+      <c r="F95">
+        <v>1188.5999999999999</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1199.5</v>
+      </c>
+      <c r="H95">
+        <v>1207.1048682288051</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1221.1483899503653</v>
+      </c>
+      <c r="K95">
+        <v>1185.3024892826609</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>39.935068709205915</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999091</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>39.900000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>9.0225563909771947E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1196.4767268938949</v>
+      </c>
+      <c r="W95">
+        <v>1185.4703913438916</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>11.006335550003314</v>
+      </c>
+      <c r="Y95">
+        <v>9.3700235528298244</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1211</v>
+      </c>
+      <c r="D96">
+        <v>1236.9000000000001</v>
+      </c>
+      <c r="E96">
+        <v>1176.25</v>
+      </c>
+      <c r="F96">
+        <v>1229</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1214.05</v>
+      </c>
+      <c r="H96">
+        <v>1210.5774341144024</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1224.6487477391731</v>
+      </c>
+      <c r="K96">
+        <v>1183.2908249976251</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>65.492598203872262</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>52.75</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>60.650000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.86974443528441747</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>1201.4803073717571</v>
+      </c>
+      <c r="W96">
+        <v>1188.6948067998997</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>12.785500571857483</v>
+      </c>
+      <c r="Y96">
+        <v>10.053118956635355</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1230</v>
+      </c>
+      <c r="D97">
+        <v>1249</v>
+      </c>
+      <c r="E97">
+        <v>1202.2</v>
+      </c>
+      <c r="F97">
+        <v>1233.8499999999999</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1228.3499999999999</v>
+      </c>
+      <c r="H97">
+        <v>1219.4637170572012</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1230.0601371304681</v>
+      </c>
+      <c r="K97">
+        <v>1187.4928638870417</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>67.563691643249939</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>31.649999999999864</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>46.799999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.67628205128204899</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1206.4602600837945</v>
+      </c>
+      <c r="W97">
+        <v>1192.039635925833</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>14.420624157961583</v>
+      </c>
+      <c r="Y97">
+        <v>10.926619996900602</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1234.2</v>
+      </c>
+      <c r="D98">
+        <v>1298</v>
+      </c>
+      <c r="E98">
+        <v>1233.05</v>
+      </c>
+      <c r="F98">
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1270.3833333333334</v>
+      </c>
+      <c r="H98">
+        <v>1244.9235251952673</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1245.1578844348085</v>
+      </c>
+      <c r="K98">
+        <v>1197.6166719121436</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>81.091446968787665</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>47.049999999999955</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>64.950000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.724403387220938</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1217.7894508401339</v>
+      </c>
+      <c r="W98">
+        <v>1198.5626258572527</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>19.226824982881226</v>
+      </c>
+      <c r="Y98">
+        <v>12.586660994096727</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1295</v>
+      </c>
+      <c r="D99">
+        <v>1345.4</v>
+      </c>
+      <c r="E99">
+        <v>1281.05</v>
+      </c>
+      <c r="F99">
+        <v>1340</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1322.1499999999999</v>
+      </c>
+      <c r="H99">
+        <v>1283.5367625976337</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1267.4339101159621</v>
+      </c>
+      <c r="K99">
+        <v>1216.1574114872228</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>88.712523016582566</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>58.950000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>64.350000000000136</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.91608391608391482</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1236.5910737878055</v>
+      </c>
+      <c r="W99">
+        <v>1209.0394683863451</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>27.551605401460392</v>
+      </c>
+      <c r="Y99">
+        <v>15.57964987556946</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>1305.6500000000001</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>1313.2</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>1320.8000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1330</v>
+      </c>
+      <c r="D100">
+        <v>1348</v>
+      </c>
+      <c r="E100">
+        <v>1277.25</v>
+      </c>
+      <c r="F100">
+        <v>1283.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1302.8166666666666</v>
+      </c>
+      <c r="H100">
+        <v>1293.1767146321502</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1285.3374856457483</v>
+      </c>
+      <c r="K100">
+        <v>1229.73354226784</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>60.032658209692791</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.9500000000000455</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>70.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>8.4098939929329264E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1243.7616778204508</v>
+      </c>
+      <c r="W100">
+        <v>1214.5328410984678</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>29.228836721983043</v>
+      </c>
+      <c r="Y100">
+        <v>18.309487244852178</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1297</v>
+      </c>
+      <c r="D101">
+        <v>1300.0999999999999</v>
+      </c>
+      <c r="E101">
+        <v>1252</v>
+      </c>
+      <c r="F101">
+        <v>1290</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1280.7</v>
+      </c>
+      <c r="H101">
+        <v>1286.9383573160751</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1288.6180443911376</v>
+      </c>
+      <c r="K101">
+        <v>1234.6816439860977</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>61.877034112266571</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>48.099999999999909</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.79002079002079151</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1250.8752658480737</v>
+      </c>
+      <c r="W101">
+        <v>1220.1230010170998</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>30.7522648309739</v>
+      </c>
+      <c r="Y101">
+        <v>20.798042762076523</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1294.2</v>
+      </c>
+      <c r="D102">
+        <v>1294.2</v>
+      </c>
+      <c r="E102">
+        <v>1250</v>
+      </c>
+      <c r="F102">
+        <v>1252</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1265.3999999999999</v>
+      </c>
+      <c r="H102">
+        <v>1276.1691786580375</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1289.8584789708848</v>
+      </c>
+      <c r="K102">
+        <v>1238.0857231002983</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>46.793203410299434</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>44.200000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.5248868778280493E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1251.0483018714469</v>
+      </c>
+      <c r="W102">
+        <v>1222.4842602010183</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>28.564041670428651</v>
+      </c>
+      <c r="Y102">
+        <v>22.351242543746949</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1250</v>
+      </c>
+      <c r="D103">
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="E103">
+        <v>1194.1500000000001</v>
+      </c>
+      <c r="F103">
+        <v>1251</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1241.75</v>
+      </c>
+      <c r="H103">
+        <v>1258.9595893290189</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1287.6899280884659</v>
+      </c>
+      <c r="K103">
+        <v>1228.3222290780097</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>46.420963676685354</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>56.849999999999909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>85.949999999999818</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.66143106457242618</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1251.0408708143013</v>
+      </c>
+      <c r="W103">
+        <v>1224.5965372231651</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>26.444333591136228</v>
+      </c>
+      <c r="Y103">
+        <v>23.169860753224803</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1228.45</v>
+      </c>
+      <c r="D104">
+        <v>1285</v>
+      </c>
+      <c r="E104">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="F104">
+        <v>1261.9000000000001</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1255</v>
+      </c>
+      <c r="H104">
+        <v>1256.9797946645094</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1287.0921662910291</v>
+      </c>
+      <c r="K104">
+        <v>1226.0506226162297</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>51.660345011263708</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>43.800000000000182</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>66.900000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.65470852017937398</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1252.7115060736396</v>
+      </c>
+      <c r="W104">
+        <v>1227.3597566881158</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>25.351749385523817</v>
+      </c>
+      <c r="Y104">
+        <v>23.606238479684606</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
